--- a/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01130641594952174</v>
+        <v>0.01129528627289294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02531706720140434</v>
+        <v>0.02502456493363771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.026609605926425</v>
+        <v>0.02673346792408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02874509268809695</v>
+        <v>0.02893935876636573</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03458990263834597</v>
+        <v>0.03473202616552078</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03238067829175569</v>
+        <v>0.03385425696269884</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0945484214586504</v>
+        <v>0.09580069193772235</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02941791013523554</v>
+        <v>0.02995627449727858</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0257883257147222</v>
+        <v>0.02617819205886259</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03339896762615305</v>
+        <v>0.03326554464398259</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06535660744327039</v>
+        <v>0.06574371386079354</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03181252091670356</v>
+        <v>0.03176918456435373</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03441462342333098</v>
+        <v>0.03275633543253873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05525235787380523</v>
+        <v>0.05410533345260547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05891366673768358</v>
+        <v>0.05639368526911558</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06102938004295796</v>
+        <v>0.06073395892395275</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06730187070824353</v>
+        <v>0.0645811565385514</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06597610904256981</v>
+        <v>0.0663261681896013</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1448645831289039</v>
+        <v>0.150179077160338</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0548733973374368</v>
+        <v>0.05544830510338934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04584072059786883</v>
+        <v>0.04518280517420531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05525926371104349</v>
+        <v>0.05603473744945123</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0962641680526435</v>
+        <v>0.09645053989905128</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05232246048712902</v>
+        <v>0.05319988835958127</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0200291503388338</v>
+        <v>0.02094030318247454</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01471007310134813</v>
+        <v>0.01425721478089439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03079634330896449</v>
+        <v>0.03068939894202169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01814121645807863</v>
+        <v>0.01770952305488289</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03446353556297931</v>
+        <v>0.03407087421389268</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03798880064621193</v>
+        <v>0.03972198955758272</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07406676307508805</v>
+        <v>0.07620690757799942</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04052037584725558</v>
+        <v>0.04155244076200364</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03044487159610601</v>
+        <v>0.03008163776200502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02967367821053144</v>
+        <v>0.03058350254082016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0561842814987038</v>
+        <v>0.0571373911011482</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03248508437248492</v>
+        <v>0.03281057183498731</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04366222327366868</v>
+        <v>0.04474747146298004</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03270390908451988</v>
+        <v>0.03310453782234627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05503325068480266</v>
+        <v>0.05524449221818119</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04108609245227091</v>
+        <v>0.0399458390262445</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06199952016296081</v>
+        <v>0.06238057791891034</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06840471299089687</v>
+        <v>0.06791165807921071</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.113985874375283</v>
+        <v>0.1138153774922286</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06381585948628599</v>
+        <v>0.0640390532728032</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04894078440112339</v>
+        <v>0.0487285316303922</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04852829825061118</v>
+        <v>0.04731168520384994</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07857886354164108</v>
+        <v>0.07912811492707267</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04864734747372682</v>
+        <v>0.04806804323343589</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02350826753373961</v>
+        <v>0.02396081208826238</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01324426389978039</v>
+        <v>0.01300643894648458</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03044048619070455</v>
+        <v>0.02912977340708334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02325934290293143</v>
+        <v>0.02244071178814491</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0340796323063788</v>
+        <v>0.03360297571722745</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03408047250980151</v>
+        <v>0.03401263634783477</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08505058425562288</v>
+        <v>0.0830303226855854</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03943538527755777</v>
+        <v>0.03934238150270834</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03299600051279441</v>
+        <v>0.03238397273378524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02607437048573574</v>
+        <v>0.02689988541711721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06088509152767071</v>
+        <v>0.06154995622843686</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03439755484846744</v>
+        <v>0.03453325180288212</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05342991097645862</v>
+        <v>0.05265889099776893</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03797926150659492</v>
+        <v>0.03873204499249674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05885617898472059</v>
+        <v>0.0605462968967618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05239454113339279</v>
+        <v>0.05112624996029249</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06578148569881066</v>
+        <v>0.06615181277362264</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06524285369215929</v>
+        <v>0.06421483086331775</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1274255913330287</v>
+        <v>0.128143128947965</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06894653625682164</v>
+        <v>0.06843244092301069</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0540670476889597</v>
+        <v>0.05356248614263264</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04528572980134253</v>
+        <v>0.04590958173665555</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08856110046998247</v>
+        <v>0.08860574753680274</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05609917398019717</v>
+        <v>0.05453869640365744</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01620155533752165</v>
+        <v>0.0152998790084294</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02838657328920937</v>
+        <v>0.02866550253751236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04060761701004333</v>
+        <v>0.04184871207484093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02640220139935492</v>
+        <v>0.02556523410393002</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03179656144508585</v>
+        <v>0.03209374098231647</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03640987862994254</v>
+        <v>0.03612611208893737</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1076699707036916</v>
+        <v>0.1073844216046338</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03832478295801339</v>
+        <v>0.03728126402130675</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02622655098933086</v>
+        <v>0.02677237412735931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03521921963532281</v>
+        <v>0.0362434082474062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07938651075618845</v>
+        <v>0.07942962377327295</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03447132874204342</v>
+        <v>0.0347763836855651</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03562638784647556</v>
+        <v>0.03501430440267736</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05665129666822696</v>
+        <v>0.05920113566481455</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07057101184446873</v>
+        <v>0.07331591114603683</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05397859437213086</v>
+        <v>0.05239506357464317</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05712596125823831</v>
+        <v>0.05718479540808331</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0631100475684593</v>
+        <v>0.06407660303064022</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1512713247879099</v>
+        <v>0.1504429750197954</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05744077679589377</v>
+        <v>0.05789300421706163</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04360329606836603</v>
+        <v>0.04277966423497842</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05460873169210715</v>
+        <v>0.05590584597785817</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1070679083476724</v>
+        <v>0.1073890548859357</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0511599383573541</v>
+        <v>0.05127102099275166</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1102538922748162</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04809481176350057</v>
+        <v>0.04809481176350056</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03694152896909649</v>
@@ -1241,7 +1241,7 @@
         <v>0.07839479329151855</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04152870229499092</v>
+        <v>0.04152870229499091</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02475570453097915</v>
+        <v>0.0248041763386545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03829418966934558</v>
+        <v>0.03858304280917845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02832844147691267</v>
+        <v>0.02803759447404517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04213703710780124</v>
+        <v>0.04177398391423003</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1001136734966296</v>
+        <v>0.1007488491624178</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04250782549045935</v>
+        <v>0.04280583955611527</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03549056294749885</v>
+        <v>0.03554914311377162</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07154409376801985</v>
+        <v>0.07209966493577387</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03701404221082222</v>
+        <v>0.03731728425569844</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03688922285453251</v>
+        <v>0.03707978731597227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05247921054564728</v>
+        <v>0.05352888622643755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0412130449731771</v>
+        <v>0.04142558111685722</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05709469365034277</v>
+        <v>0.05654822531355622</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1224556491772921</v>
+        <v>0.1225624818039114</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05410845225639486</v>
+        <v>0.05455467979734376</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04536867160329198</v>
+        <v>0.04536884175255296</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08470088887638755</v>
+        <v>0.08566991677627277</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04612465339566971</v>
+        <v>0.04604764883757766</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7847</v>
+        <v>7839</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17810</v>
+        <v>17604</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17956</v>
+        <v>18040</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19855</v>
+        <v>19989</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23810</v>
+        <v>23908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22571</v>
+        <v>23598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>63616</v>
+        <v>64458</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21598</v>
+        <v>21993</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>35649</v>
+        <v>36188</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>46776</v>
+        <v>46589</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>88077</v>
+        <v>88599</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45329</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23884</v>
+        <v>22733</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38868</v>
+        <v>38061</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39755</v>
+        <v>38054</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42154</v>
+        <v>41950</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46327</v>
+        <v>44455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45989</v>
+        <v>46233</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>97471</v>
+        <v>101046</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40287</v>
+        <v>40709</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63369</v>
+        <v>62459</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>77392</v>
+        <v>78478</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>129729</v>
+        <v>129981</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>74554</v>
+        <v>75804</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19264</v>
+        <v>20140</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14974</v>
+        <v>14513</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31487</v>
+        <v>31378</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19029</v>
+        <v>18576</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33374</v>
+        <v>32994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>39211</v>
+        <v>41000</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77245</v>
+        <v>79477</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>43417</v>
+        <v>44522</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58764</v>
+        <v>58063</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>60835</v>
+        <v>62700</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>116040</v>
+        <v>118008</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>68881</v>
+        <v>69571</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41994</v>
+        <v>43038</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33291</v>
+        <v>33699</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56268</v>
+        <v>56484</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43096</v>
+        <v>41900</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60040</v>
+        <v>60409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70606</v>
+        <v>70097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118877</v>
+        <v>118700</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>68377</v>
+        <v>68616</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>94465</v>
+        <v>94055</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>99489</v>
+        <v>96995</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>162292</v>
+        <v>163427</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>103151</v>
+        <v>101923</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15951</v>
+        <v>16258</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10034</v>
+        <v>9854</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23121</v>
+        <v>22126</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18679</v>
+        <v>18022</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23305</v>
+        <v>22979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26486</v>
+        <v>26434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66766</v>
+        <v>65180</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32032</v>
+        <v>31956</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>44952</v>
+        <v>44118</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>40019</v>
+        <v>41286</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>94041</v>
+        <v>95068</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55563</v>
+        <v>55783</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36253</v>
+        <v>35730</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28774</v>
+        <v>29344</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44704</v>
+        <v>45988</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42077</v>
+        <v>41058</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44984</v>
+        <v>45237</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50705</v>
+        <v>49906</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>100030</v>
+        <v>100594</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>56002</v>
+        <v>55585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>73658</v>
+        <v>72971</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>69504</v>
+        <v>70462</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>136788</v>
+        <v>136857</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>90619</v>
+        <v>88098</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15265</v>
+        <v>14416</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26903</v>
+        <v>27167</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38072</v>
+        <v>39236</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26140</v>
+        <v>25311</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33024</v>
+        <v>33333</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>38300</v>
+        <v>38001</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>112384</v>
+        <v>112086</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42887</v>
+        <v>41719</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>51950</v>
+        <v>53032</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>70426</v>
+        <v>72474</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>157292</v>
+        <v>157378</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>72704</v>
+        <v>73347</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33568</v>
+        <v>32991</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53691</v>
+        <v>56107</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66165</v>
+        <v>68739</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53442</v>
+        <v>51874</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>59332</v>
+        <v>59393</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>66386</v>
+        <v>67402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>157894</v>
+        <v>157029</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>64279</v>
+        <v>64785</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>86371</v>
+        <v>84739</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>109198</v>
+        <v>111792</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>212139</v>
+        <v>212775</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>107902</v>
+        <v>108136</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>84832</v>
+        <v>84998</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>129984</v>
+        <v>130964</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>100078</v>
+        <v>99050</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>149937</v>
+        <v>148645</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>354857</v>
+        <v>357109</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>158850</v>
+        <v>159963</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>247905</v>
+        <v>248314</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>496437</v>
+        <v>500292</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>269082</v>
+        <v>271286</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>126411</v>
+        <v>127064</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>178133</v>
+        <v>181696</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>145596</v>
+        <v>146347</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>203161</v>
+        <v>201216</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>434049</v>
+        <v>434428</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>202201</v>
+        <v>203868</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>316904</v>
+        <v>316905</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>587730</v>
+        <v>594454</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>335313</v>
+        <v>334753</v>
       </c>
     </row>
     <row r="24">
